--- a/biology/Médecine/Cesare_Adelmare/Cesare_Adelmare.xlsx
+++ b/biology/Médecine/Cesare_Adelmare/Cesare_Adelmare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cesare Adelmare, mort en 1569, a été le médecin des reines Mary Ire et Elizabeth Ire d'Angleterre. D'origine italienne, son prénom est anglicisé en Caesar (César) et son patronyme se retrouve sous des formes telles que Dalmariis, Dalmare et Adelmari[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cesare Adelmare, mort en 1569, a été le médecin des reines Mary Ire et Elizabeth Ire d'Angleterre. D'origine italienne, son prénom est anglicisé en Caesar (César) et son patronyme se retrouve sous des formes telles que Dalmariis, Dalmare et Adelmari.
 Ses descendants ont adopté Cesare ‒ le nom qu'on lui donnait à la cour ‒ comme patronyme.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cesare Adelmare, diplômé en arts et en médecine à l'Université de Padoue, a émigré en Angleterre, vraisemblablement autour de 1550, et a commencé à exercer à Londres en tant que médecin. Le 20 avril 1554, « César A Dalmariis » fut « condamné à une amende parce qu'il pratiquait la médecine contre la loi du royaume ». Quelques jours plus tard, le 27 avril 1554, il fut élu membre, puis censeur l'année suivante, du Collège des médecins[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cesare Adelmare, diplômé en arts et en médecine à l'Université de Padoue, a émigré en Angleterre, vraisemblablement autour de 1550, et a commencé à exercer à Londres en tant que médecin. Le 20 avril 1554, « César A Dalmariis » fut « condamné à une amende parce qu'il pratiquait la médecine contre la loi du royaume ». Quelques jours plus tard, le 27 avril 1554, il fut élu membre, puis censeur l'année suivante, du Collège des médecins.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Pietro Maria Adelmare, était juriste et citoyen de Trévise. Sa mère, Paola Cesarini, était peut-être apparentée au cardinal Giuliano Cesarini.
 Cesare Adelmare a épousé une Margaret Perient (ou Perrin). Beaucoup de leurs enfants ont eu des carrières prestigieuses :
